--- a/individual_case_outputs/avey/75.xlsx
+++ b/individual_case_outputs/avey/75.xlsx
@@ -764,7 +764,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>pelvic inflammatory disease</t>
+          <t>vaginitis</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>pelvic inflammatory disease</t>
+          <t>acute appendicitis</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -968,11 +968,7 @@
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>acute appendicitis</t>
-        </is>
-      </c>
+      <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr">
         <is>
           <t>acute appendicitis</t>
